--- a/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type2/pd_results_W5_H200_B32.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type2/pd_results_W5_H200_B32.xlsx
@@ -502,23 +502,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5535714285714286</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
+        <v>0.5522388059701493</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.9946236559139785</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5535714285714286</v>
+        <v>0.5505952380952381</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7126436781609196</v>
+        <v>0.7101727447216891</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4851190476190476</v>
+        <v>0.4940476190476191</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,19 +528,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.09944817829146728</v>
+        <v>0.07479153556416625</v>
       </c>
       <c r="J2" t="n">
-        <v>1314.56329518373</v>
+        <v>997.258628827366</v>
       </c>
       <c r="K2" t="n">
-        <v>2416221.83642779</v>
+        <v>1452415.582414721</v>
       </c>
       <c r="L2" t="n">
-        <v>1554.420096507952</v>
+        <v>1205.162056494777</v>
       </c>
       <c r="M2" t="n">
-        <v>0.554719055659654</v>
+        <v>0.7323370841361119</v>
       </c>
     </row>
   </sheetData>
